--- a/xlsx/亚美利哥·韦斯普奇_intext.xlsx
+++ b/xlsx/亚美利哥·韦斯普奇_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_亚美利哥·韦斯普奇</t>
+    <t>意大利语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_亚美利哥·韦斯普奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E4%BC%A6%E8%90%A8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
